--- a/locations.xlsx
+++ b/locations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="117">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -133,69 +133,42 @@
     <t xml:space="preserve">#</t>
   </si>
   <si>
-    <t xml:space="preserve">Blue Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cplAZ3Rblah69SQfE8js.heic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/19/2023 8:42:45 AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7477138888889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.5697222222222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8111, South Luella Avenue, South Chicago, Chicago, Hyde Park Township, Cook County, Illinois, 60617, United States</t>
+    <t xml:space="preserve">IMG_1045.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/15/2021 5:21:51 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8637888888889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.8146277777778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crazy Grill Buffet, Roosevelt Road, Forest Park, Proviso Township, Cook County, Illinois, 60130, United States</t>
   </si>
   <si>
     <t xml:space="preserve">Images</t>
   </si>
   <si>
+    <t xml:space="preserve">Crazy Grill Buffet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest Park</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cook County</t>
   </si>
   <si>
     <t xml:space="preserve">IL</t>
   </si>
   <si>
-    <t xml:space="preserve">60617</t>
+    <t xml:space="preserve">60130</t>
   </si>
   <si>
     <t xml:space="preserve">US</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7477138888889, -87.5697222222222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMG_1045.JPG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/15/2021 5:21:51 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8637888888889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.8146277777778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crazy Grill Buffet, Roosevelt Road, Forest Park, Proviso Township, Cook County, Illinois, 60130, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crazy Grill Buffet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roosevelt Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forest Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60130</t>
-  </si>
-  <si>
     <t xml:space="preserve">12/26/2023 11:01:31 AM(UTC-6)</t>
   </si>
   <si>
@@ -286,9 +259,6 @@
     <t xml:space="preserve">14447</t>
   </si>
   <si>
-    <t xml:space="preserve">West 159th Street</t>
-  </si>
-  <si>
     <t xml:space="preserve">Homer Glen</t>
   </si>
   <si>
@@ -364,9 +334,6 @@
     <t xml:space="preserve">8701</t>
   </si>
   <si>
-    <t xml:space="preserve">Industrial Drive</t>
-  </si>
-  <si>
     <t xml:space="preserve">Justice</t>
   </si>
   <si>
@@ -376,7 +343,34 @@
     <t xml:space="preserve">No_Plate2</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">Willis Tower – Address only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">233 S Wacker Dr, Chicago, IL 60606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago Cloud Gate Fulladdress only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedway, Loop, Chicago, Cook County, Illinois, 60602, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201 E Randolph St, Chicago, IL 60601 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midway GPS only</t>
   </si>
 </sst>
 </file>
@@ -386,7 +380,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -408,12 +402,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -476,7 +464,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -490,10 +478,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -581,10 +565,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="B12" activeCellId="0" sqref="2:12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.96"/>
@@ -707,103 +691,100 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="R2" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="U2" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="V2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" s="0" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AJ2" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK2" s="0" t="n">
-        <v>2</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="V3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="Y3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="V3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="W3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z3" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="AJ3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK3" s="0" t="n">
-        <v>599</v>
+        <v>753</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>57</v>
+      </c>
       <c r="C4" s="0" t="s">
         <v>58</v>
       </c>
@@ -813,342 +794,373 @@
       <c r="G4" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="J4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="Y4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="AA4" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="W4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z4" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA4" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="AJ4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK4" s="0" t="n">
-        <v>753</v>
+        <v>795</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="G5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="V5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="Y5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="V5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="W5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="X5" s="0" t="s">
+      <c r="AA5" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="Y5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z5" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA5" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="AJ5" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5" s="0" t="n">
-        <v>795</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>71</v>
+      </c>
       <c r="B6" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="I6" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J6" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z6" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="V6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="W6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="X6" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z6" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA6" s="0" t="s">
-        <v>79</v>
-      </c>
       <c r="AJ6" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK6" s="0" t="n">
-        <v>1607</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="I7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="R7" s="0" t="s">
+      <c r="V7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA7" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="S7" s="0" t="s">
+      <c r="AB7" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="T7" s="0" t="s">
+      <c r="AG7" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="U7" s="0" t="s">
+      <c r="AH7" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="V7" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="W7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="X7" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z7" s="0" t="s">
-        <v>85</v>
-      </c>
       <c r="AJ7" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK7" s="0" t="n">
-        <v>1766</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="J8" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>95</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z8" s="0" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="AA8" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB8" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AG8" s="4" t="s">
+      <c r="AG8" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="AH8" s="0" t="s">
-        <v>99</v>
-      </c>
       <c r="AJ8" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="I9" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="J9" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="S9" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="U9" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="V9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA9" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="V9" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="W9" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="X9" s="0" t="s">
+      <c r="AB9" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="Y9" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z9" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA9" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="AG9" s="0" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="AJ9" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="J11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="U11" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="V11" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="O10" s="0" t="s">
+      <c r="W11" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="S10" s="0" t="s">
+      <c r="X11" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="T10" s="0" t="s">
+      <c r="Y11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z11" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="U10" s="0" t="s">
+      <c r="AA11" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="V10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="W10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="X10" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z10" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA10" s="0" t="s">
+      <c r="AJ11" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="AB10" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG10" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ10" s="0" t="n">
-        <v>10</v>
+      <c r="F12" s="0" t="n">
+        <v>41.7854316</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>-87.7508486935715</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ12" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="171">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -479,46 +479,25 @@
     <t xml:space="preserve">-87.7508486935715, 41.7854316</t>
   </si>
   <si>
-    <t xml:space="preserve">7/24/2023 2:32:45 PM(UTC-5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.381496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-93.755073</t>
+    <t xml:space="preserve">Little Red Schoolhouse Nature Center, 9800 Willow Springs Rd, Willow Springs, IL 60480</t>
   </si>
   <si>
     <t xml:space="preserve">SearchedPlaces</t>
   </si>
   <si>
-    <t xml:space="preserve">Henry County Fairgrounds</t>
+    <t xml:space="preserve">Little Red Schoolhouse Nature Center</t>
   </si>
   <si>
     <t xml:space="preserve">Searched Items</t>
   </si>
   <si>
-    <t xml:space="preserve">Henry County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Sedalia Avenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missouri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Sedalia Avenue, Clinton, Henry County, Missouri, 64735, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.381496, -93.755073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-93.755073, 38.381496</t>
+    <t xml:space="preserve">Willow Springs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Red Schoolhouse Nature Center, 9800, Willow Springs Road, Willow Springs, Palos Township, Cook County, Illinois, 60480, United States</t>
   </si>
   <si>
     <t xml:space="preserve">GPS Pin Colors</t>
@@ -758,10 +737,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
@@ -1556,89 +1535,61 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="0" t="n">
+        <v>41.7090584</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>-87.877258885395</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="F13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="H13" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="I13" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="J13" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="T13" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="U13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="W13" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5" t="s">
+      <c r="X13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y13" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="T13" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="V13" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="X13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y13" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z13" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5" t="n">
+      <c r="Z13" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI13" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1666,7 +1617,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60"/>
@@ -1674,7 +1625,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -1682,23 +1633,23 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>81</v>
@@ -1706,7 +1657,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>49</v>
@@ -1714,7 +1665,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>63</v>
@@ -1722,18 +1673,18 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="134">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -161,9 +161,6 @@
     <t xml:space="preserve">-87.8146277777778</t>
   </si>
   <si>
-    <t xml:space="preserve">Crazy Grill Buffet, Roosevelt Road, Forest Park, Proviso Township, Cook County, Illinois, 60130, United States</t>
-  </si>
-  <si>
     <t xml:space="preserve">Media</t>
   </si>
   <si>
@@ -173,10 +170,58 @@
     <t xml:space="preserve">Images</t>
   </si>
   <si>
-    <t xml:space="preserve">Crazy Grill Buffet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forest Park</t>
+    <t xml:space="preserve">12/26/2023 11:01:31 AM(UTC-6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8832054138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.6369670043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PointOfInterest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserSpecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple Maps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/20/2023 3:26:38 PM(UTC-5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8637869888889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.8169277777778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WhatsApp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purple Test – Parking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/24/2023 10:24:20 AM(UTC-6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8636988888889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roosevelt Road, Forest Park, Proviso Township, Cook County, Illinois, 60154, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_0069.MOV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Videos</t>
   </si>
   <si>
     <t xml:space="preserve">Cook County</t>
@@ -185,102 +230,15 @@
     <t xml:space="preserve">IL</t>
   </si>
   <si>
-    <t xml:space="preserve">60130</t>
+    <t xml:space="preserve">60141</t>
   </si>
   <si>
     <t xml:space="preserve">US</t>
   </si>
   <si>
-    <t xml:space="preserve">-87.8146277777778, 41.8637888888889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/26/2023 11:01:31 AM(UTC-6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8832054138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.6369670043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Washington Street, Loop, Chicago, Cook County, Illinois, 60606, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PointOfInterest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserSpecified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apple Maps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8832054138184, -87.6369670043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.6369670043945, 41.8832054138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/20/2023 3:26:38 PM(UTC-5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8637869888889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.8169277777778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WhatsApp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purple Test – Parking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roosevelt Road, Forest Park, Proviso Township, Cook County, Illinois, 60154, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8637869888889, -87.8169277777778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.8169277777778, 41.8637869888889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/24/2023 10:24:20 AM(UTC-6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8636988888889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMG_0069.MOV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Videos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60141</t>
-  </si>
-  <si>
     <t xml:space="preserve">Roosevelt Road, Forest Park, Proviso Township, Cook County, Illinois, 60141, United States</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8636988888889, -87.8169277777778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.8169277777778, 41.8636988888889</t>
-  </si>
-  <si>
     <t xml:space="preserve">8/6/2022 7:14:54 PM(UTC-5)</t>
   </si>
   <si>
@@ -290,33 +248,12 @@
     <t xml:space="preserve">-87.9698</t>
   </si>
   <si>
-    <t xml:space="preserve">DiNolfo's Banquets, 14447, West 159th Street, Homer Glen, Will County, Illinois, 60491, United States</t>
-  </si>
-  <si>
     <t xml:space="preserve">IMG_1969.MOV</t>
   </si>
   <si>
     <t xml:space="preserve">Yellow test w/Business</t>
   </si>
   <si>
-    <t xml:space="preserve">DiNolfo's Banquets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homer Glen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Will County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.9698, 41.5988</t>
-  </si>
-  <si>
     <t xml:space="preserve">9/22/2021 1:02:45 PM(UTC-5)</t>
   </si>
   <si>
@@ -326,10 +263,10 @@
     <t xml:space="preserve">LPR</t>
   </si>
   <si>
-    <t xml:space="preserve">test3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8832069138184, -87.6369670043945</t>
+    <t xml:space="preserve">Flock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Test</t>
   </si>
   <si>
     <t xml:space="preserve">No_Plate</t>
@@ -353,61 +290,34 @@
     <t xml:space="preserve">-87.8328635429077</t>
   </si>
   <si>
-    <t xml:space="preserve">Tri-State Tollway, Justice, Lyons Township, Cook County, Illinois, 60458, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flock</t>
-  </si>
-  <si>
     <t xml:space="preserve">Orange Test</t>
   </si>
   <si>
+    <t xml:space="preserve">I-294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.8369635429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8701, Industrial Drive, Justice, Lyons Township, Cook County, Illinois, 60458, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justice</t>
+  </si>
+  <si>
     <t xml:space="preserve">60458</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7431510003286, -87.8328635429077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I-294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.8328635429077, 41.7431510003286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.8369635429077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8701, Industrial Drive, Justice, Lyons Township, Cook County, Illinois, 60458, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Justice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7431510003286, -87.8369635429077</t>
-  </si>
-  <si>
     <t xml:space="preserve">No_Plate2</t>
   </si>
   <si>
     <t xml:space="preserve">-87.8369635429077, 41.7431510003286</t>
   </si>
   <si>
-    <t xml:space="preserve">41.87873805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.6359612118808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">233 S Wacker Dr, Chicago, IL 60606</t>
+    <t xml:space="preserve">Willis Tower, 233, South Wacker Drive, Chicago, Illinois, 60606</t>
   </si>
   <si>
     <t xml:space="preserve">Navigation</t>
@@ -422,82 +332,61 @@
     <t xml:space="preserve">Willis Tower – Address only</t>
   </si>
   <si>
-    <t xml:space="preserve">Willis Tower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago</t>
+    <t xml:space="preserve">41.4958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.875012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7854316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.7508486935715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midway GPS only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Red Schoolhouse Nature Center, 9800 Willow Springs Rd, Willow Springs, IL 60480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SearchedPlaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Red Schoolhouse Nature Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searched Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willow Springs</t>
   </si>
   <si>
     <t xml:space="preserve">Illinois</t>
   </si>
   <si>
-    <t xml:space="preserve">Willis Tower, 233, South Wacker Drive, Printer's Row, Loop, Chicago, Cook County, Illinois, 60606, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.6359612118808, 41.87873805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedway, Loop, Chicago, Cook County, Illinois, 60602, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago Cloud Gate Fulladdress only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201 E Randolph St, Chicago, IL 60601 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7854316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.7508486935715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midway GPS only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago Midway International Airport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago Midway International Airport, 5700, South Cicero Avenue, Garfield Ridge, Chicago, Lake Township, Cook County, Illinois, 60638, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7854316, -87.7508486935715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.7508486935715, 41.7854316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Red Schoolhouse Nature Center, 9800 Willow Springs Rd, Willow Springs, IL 60480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SearchedPlaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Red Schoolhouse Nature Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searched Items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willow Springs</t>
-  </si>
-  <si>
     <t xml:space="preserve">60480</t>
   </si>
   <si>
     <t xml:space="preserve">Little Red Schoolhouse Nature Center, 9800, Willow Springs Road, Willow Springs, Palos Township, Cook County, Illinois, 60480, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riverside Public Library, 1 Burling Rd, Riverside, IL 60546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riverside Public Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riverside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riverside Public Library, 1, Burling Road, Riverside, Riverside Township, Cook County, Illinois, 60546, United States</t>
   </si>
   <si>
     <t xml:space="preserve">GPS Pin Colors</t>
@@ -730,17 +619,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR13"/>
+  <dimension ref="A1:AR14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
@@ -923,45 +812,19 @@
       <c r="D2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="V2" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF2" s="0" t="s">
-        <v>56</v>
-      </c>
+      <c r="W2" s="4"/>
       <c r="AI2" s="0" t="n">
         <v>2</v>
       </c>
@@ -971,50 +834,27 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="X3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="Y3" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z3" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF3" s="0" t="s">
-        <v>67</v>
-      </c>
+      <c r="W3" s="4"/>
       <c r="AI3" s="0" t="n">
         <v>3</v>
       </c>
@@ -1024,51 +864,31 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="U4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="V4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y4" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z4" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF4" s="0" t="s">
-        <v>77</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="W4" s="4"/>
       <c r="AI4" s="0" t="n">
         <v>4</v>
       </c>
@@ -1078,49 +898,43 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X5" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="U5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="V5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="X5" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="Y5" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z5" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF5" s="0" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="AI5" s="0" t="n">
         <v>5</v>
@@ -1131,59 +945,31 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="T6" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="U6" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="V6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="X6" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y6" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF6" s="0" t="s">
-        <v>97</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="W6" s="4"/>
       <c r="AI6" s="0" t="n">
         <v>6</v>
       </c>
@@ -1193,58 +979,41 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>100</v>
+        <v>79</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>80</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="U7" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="V7" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="X7" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y7" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z7" s="0" t="s">
-        <v>102</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="W7" s="4"/>
       <c r="AB7" s="0" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AE7" s="0" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="AF7" s="0" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="AI7" s="0" t="n">
         <v>7</v>
       </c>
       <c r="AL7" s="0" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="AM7" s="0" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1252,61 +1021,35 @@
         <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="U8" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="V8" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="X8" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y8" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z8" s="0" t="s">
-        <v>114</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="W8" s="4"/>
       <c r="AE8" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF8" s="0" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="AI8" s="0" t="n">
         <v>8</v>
       </c>
       <c r="AL8" s="0" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,124 +1057,88 @@
         <v>9</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z9" s="0" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="AE9" s="0" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="AF9" s="0" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="AI9" s="0" t="n">
         <v>9</v>
       </c>
       <c r="AL9" s="0" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>127</v>
-      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="0" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="T10" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="U10" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="V10" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="X10" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y10" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z10" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF10" s="0" t="s">
-        <v>138</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="W10" s="4"/>
       <c r="AI10" s="0" t="n">
         <v>10</v>
       </c>
@@ -1440,44 +1147,24 @@
       <c r="A11" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>139</v>
+      <c r="C11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="T11" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="U11" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="V11" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="X11" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y11" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z11" s="0" t="s">
-        <v>143</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="W11" s="4"/>
       <c r="AI11" s="0" t="n">
         <v>11</v>
       </c>
@@ -1487,55 +1174,29 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q12" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="T12" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="U12" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="V12" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="X12" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y12" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z12" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF12" s="0" t="s">
-        <v>151</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="W12" s="4"/>
       <c r="AI12" s="0" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>13</v>
       </c>
@@ -1546,49 +1207,87 @@
         <v>-87.877258885395</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="V13" s="0" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="Y13" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z13" s="0" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="AI13" s="0" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>41.82621495</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>-87.8192555677286</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z14" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI14" s="0" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +1316,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60"/>
@@ -1625,7 +1324,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -1633,58 +1332,58 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -10,6 +10,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="GPS Pin Color Codes" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sample_output" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="216">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -125,33 +126,33 @@
     <t xml:space="preserve">Capture Location Longitude</t>
   </si>
   <si>
+    <t xml:space="preserve">Container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sighting Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manually decoded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account</t>
+  </si>
+  <si>
     <t xml:space="preserve">Index</t>
   </si>
   <si>
-    <t xml:space="preserve">Container</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sighting Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manually decoded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account</t>
-  </si>
-  <si>
     <t xml:space="preserve">7/15/2021 5:21:51 PM</t>
   </si>
   <si>
@@ -170,6 +171,9 @@
     <t xml:space="preserve">Images</t>
   </si>
   <si>
+    <t xml:space="preserve">Test – gps only (black pin) with business</t>
+  </si>
+  <si>
     <t xml:space="preserve">12/26/2023 11:01:31 AM(UTC-6)</t>
   </si>
   <si>
@@ -191,6 +195,9 @@
     <t xml:space="preserve">Apple Maps</t>
   </si>
   <si>
+    <t xml:space="preserve">Test – gps only (purple pin) no business</t>
+  </si>
+  <si>
     <t xml:space="preserve">9/20/2023 3:26:38 PM(UTC-5)</t>
   </si>
   <si>
@@ -206,9 +213,6 @@
     <t xml:space="preserve">WhatsApp</t>
   </si>
   <si>
-    <t xml:space="preserve">Purple Test – Parking</t>
-  </si>
-  <si>
     <t xml:space="preserve">12/24/2023 10:24:20 AM(UTC-6)</t>
   </si>
   <si>
@@ -224,6 +228,9 @@
     <t xml:space="preserve">Videos</t>
   </si>
   <si>
+    <t xml:space="preserve">Test – Fulladdress,gps and address (yellow pin) no business</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cook County</t>
   </si>
   <si>
@@ -239,45 +246,42 @@
     <t xml:space="preserve">Roosevelt Road, Forest Park, Proviso Township, Cook County, Illinois, 60141, United States</t>
   </si>
   <si>
-    <t xml:space="preserve">8/6/2022 7:14:54 PM(UTC-5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.9698</t>
+    <t xml:space="preserve">3501 S Laramie Ave, Cicero, IL 60804</t>
   </si>
   <si>
     <t xml:space="preserve">IMG_1969.MOV</t>
   </si>
   <si>
-    <t xml:space="preserve">Yellow test w/Business</t>
+    <t xml:space="preserve">Test – gps only (yellow pin) with business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawthorne Racecourse</t>
   </si>
   <si>
     <t xml:space="preserve">9/22/2021 1:02:45 PM(UTC-5)</t>
   </si>
   <si>
+    <t xml:space="preserve">LPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – lpr gps only (red) end time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No_Plate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Washington Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.6369670043945, 41.8832069138184</t>
+  </si>
+  <si>
     <t xml:space="preserve">41.8832069138184</t>
   </si>
   <si>
-    <t xml:space="preserve">LPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No_Plate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Washington Street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.6369670043945, 41.8832069138184</t>
-  </si>
-  <si>
     <t xml:space="preserve">west</t>
   </si>
   <si>
@@ -290,139 +294,382 @@
     <t xml:space="preserve">-87.8328635429077</t>
   </si>
   <si>
-    <t xml:space="preserve">Orange Test</t>
+    <t xml:space="preserve">Intel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – gps only(orange pin) (unkown type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – gps only LPR (red pin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No_Plate2</t>
   </si>
   <si>
     <t xml:space="preserve">I-294</t>
   </si>
   <si>
+    <t xml:space="preserve">-87.8369635429077, 41.7431510003286</t>
+  </si>
+  <si>
     <t xml:space="preserve">-87.8369635429077</t>
   </si>
   <si>
+    <t xml:space="preserve">Test - (nothing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willis Tower, 233, South Wacker Drive, Chicago, Illinois, 60606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – address only w/ business (orange pin) (yellow font) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – gps only (purple pin) w/ business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.78543165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.7508486935769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – gps only (black pin) w/ business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Red Schoolhouse Nature Center, 9800 Willow Springs Rd, Willow Springs, IL 60480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SearchedPlaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Red Schoolhouse Nature Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searched Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – gps / address (orange pin) w/ business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riverside Public Library, 1 Burling Rd, Riverside, IL 60546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – full address/gps and address (orange pin) w/ business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riverside Public Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riverside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riverside Public Library, 1, Burling Road, Riverside, Riverside Township, Cook County, Illinois, 60546, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7856916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.7508994935715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mentioned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flight: EY 242 from LHE to AUH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calendar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – gps only (orange pin) w/ business capture time convert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 7, 2024 at 1:39:20 PM CST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO_Plate2 - FLOCK Report.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – Flock Coordinate only (red pin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 13, 2022, 9:41:33 PM CDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cicero IL PD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09  Central/Pershing (SB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(41.821174151816635,-87.76324840980894)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPS Pin Colors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPR (License Plate Reader)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default pin color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow font</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visit https://earth.google.com/ &lt;file&gt;&lt;Import KML&gt; select gps.kml &lt;open&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crazy Grill Buffet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roosevelt Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crazy Grill Buffet, Roosevelt Road, Forest Park, Proviso Township, Cook County, Illinois, 60130, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8637888888889, -87.8146277777778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8637888888889,-87.8146277777778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Washington Street, Loop, Chicago, Cook County, Illinois, 60606, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8832054138184, -87.6369670043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8832054138184,-87.6369670043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8637869888889, -87.8169277777778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8637869888889,-87.8169277777778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8636988888889,-87.8169277777778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8285843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.7510767237512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stickney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawthorne Racecourse, 3501, South Laramie Avenue, Stickney, Stickney Township, Cook County, Illinois, 60804, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8285843, -87.7510767237512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8285843,-87.7510767237512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8832069138184, -87.6369670043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8832069138184,-87.6369670043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tri-State Tollway, Justice, Lyons Township, Cook County, Illinois, 60458, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7431510003286, -87.8328635429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7431510003286,-87.8328635429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial Drive</t>
+  </si>
+  <si>
     <t xml:space="preserve">8701, Industrial Drive, Justice, Lyons Township, Cook County, Illinois, 60458, United States</t>
   </si>
   <si>
-    <t xml:space="preserve">8701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Justice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No_Plate2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.8369635429077, 41.7431510003286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willis Tower, 233, South Wacker Drive, Chicago, Illinois, 60606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willis Tower – Address only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.875012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7854316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.7508486935715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midway GPS only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Red Schoolhouse Nature Center, 9800 Willow Springs Rd, Willow Springs, IL 60480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SearchedPlaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Red Schoolhouse Nature Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searched Items</t>
+    <t xml:space="preserve">41.7431510003286, -87.8369635429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7431510003286,-87.8369635429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willis Tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willis Tower, 233, South Wacker Drive, Printer's Row, Loop, Chicago, Cook County, Illinois, 60606, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.878738049999995,-87.63596121188081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8458074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.80702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Riverside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban Air, 7401, West 25th Street, North Riverside Plaza, North Riverside, Riverside Township, Cook County, Illinois, 60546, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8458074, -87.80702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8458074,-87.80702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago Midway International Airport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago Midway International Airport, 5700, South Cicero Avenue, Garfield Ridge, Chicago, Lake Township, Cook County, Illinois, 60638, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.78543165, -87.7508486935769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.78543165,-87.7508486935769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7090584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.877258885395</t>
   </si>
   <si>
     <t xml:space="preserve">Willow Springs</t>
   </si>
   <si>
-    <t xml:space="preserve">Illinois</t>
-  </si>
-  <si>
     <t xml:space="preserve">60480</t>
   </si>
   <si>
     <t xml:space="preserve">Little Red Schoolhouse Nature Center, 9800, Willow Springs Road, Willow Springs, Palos Township, Cook County, Illinois, 60480, United States</t>
   </si>
   <si>
-    <t xml:space="preserve">Riverside Public Library, 1 Burling Rd, Riverside, IL 60546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riverside Public Library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riverside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riverside Public Library, 1, Burling Road, Riverside, Riverside Township, Cook County, Illinois, 60546, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPS Pin Colors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR (License Plate Reader)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default pin color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellow font</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visit https://earth.google.com/ &lt;file&gt;&lt;Import KML&gt; select gps.kml &lt;open&gt;</t>
+    <t xml:space="preserve">41.7090584, -87.877258885395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7090584,-87.877258885395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.82621495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.8192555677286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.82621495,-87.8192555677286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/07/2024 01:39:20 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7856916, -87.7508994935715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7856916,-87.7508994935715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/13/2022 09:41:33 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.821174151816635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.76324840980894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Central Avenue, Stickney, Stickney Township, Cook County, Illinois, 60459, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.821174151816635, -87.76324840980894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.821174151816635,-87.76324840980894</t>
   </si>
 </sst>
 </file>
@@ -457,7 +704,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,6 +727,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -517,7 +770,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -539,6 +792,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -595,7 +852,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFFA500"/>
       <rgbColor rgb="FFFF6600"/>
@@ -619,17 +876,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR14"/>
+  <dimension ref="A1:AQ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
@@ -652,17 +909,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="39.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="40" style="0" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="24.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="6.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -774,28 +1032,25 @@
       <c r="AJ1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>30</v>
+      <c r="AL1" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AO1" s="0" t="s">
+        <v>40</v>
+      </c>
       <c r="AP1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -824,8 +1079,11 @@
       <c r="I2" s="0" t="s">
         <v>48</v>
       </c>
+      <c r="P2" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="W2" s="4"/>
-      <c r="AI2" s="0" t="n">
+      <c r="AQ2" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -834,28 +1092,31 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="W3" s="4"/>
-      <c r="AI3" s="0" t="n">
+      <c r="AQ3" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -864,32 +1125,32 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="W4" s="4"/>
-      <c r="AI4" s="0" t="n">
+      <c r="AQ4" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -898,16 +1159,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>46</v>
@@ -916,27 +1177,30 @@
         <v>46</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI5" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="AQ5" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -944,13 +1208,13 @@
       <c r="A6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="0" t="n">
+        <v>41.8285843</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>-87.7510767237512</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>74</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -963,14 +1227,15 @@
         <v>75</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="P6" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="AI6" s="0" t="n">
+      <c r="Q6" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ6" s="0" t="n">
         <v>6</v>
       </c>
     </row>
@@ -979,13 +1244,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>79</v>
@@ -993,7 +1252,7 @@
       <c r="J7" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="P7" s="6" t="s">
         <v>81</v>
       </c>
       <c r="W7" s="4"/>
@@ -1006,14 +1265,20 @@
       <c r="AF7" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="AI7" s="0" t="n">
+      <c r="AG7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK7" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM7" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ7" s="0" t="n">
         <v>7</v>
-      </c>
-      <c r="AL7" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM7" s="0" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,35 +1286,25 @@
         <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>46</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="I8" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="W8" s="4"/>
-      <c r="AE8" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI8" s="0" t="n">
+      <c r="AQ8" s="0" t="n">
         <v>8</v>
-      </c>
-      <c r="AL8" s="0" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,58 +1312,35 @@
         <v>9</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>92</v>
-      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
       <c r="I9" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="P9" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="R9" s="4" t="s">
+      <c r="P9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="AB9" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="T9" s="0" t="s">
+      <c r="AE9" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="U9" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="V9" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="W9" s="4" t="s">
+      <c r="AF9" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="X9" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y9" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB9" s="0" t="s">
+      <c r="AG9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AE9" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI9" s="0" t="n">
+      <c r="AQ9" s="0" t="n">
         <v>9</v>
-      </c>
-      <c r="AL9" s="0" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1117,29 +1349,14 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>102</v>
-      </c>
+      <c r="P10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="R10" s="4"/>
       <c r="W10" s="4"/>
-      <c r="AI10" s="0" t="n">
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AQ10" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1147,25 +1364,23 @@
       <c r="A11" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>105</v>
+        <v>90</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="P11" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="W11" s="4"/>
-      <c r="AI11" s="0" t="n">
+      <c r="AQ11" s="0" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1173,26 +1388,31 @@
       <c r="A12" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>107</v>
+      <c r="C12" s="0" t="n">
+        <v>41.8458074</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>-87.80702</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="P12" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="W12" s="4"/>
-      <c r="AI12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ12" s="0" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1200,52 +1420,26 @@
       <c r="A13" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>41.7090584</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>-87.877258885395</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>111</v>
+      <c r="C13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q13" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="T13" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="U13" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="V13" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="W13" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="X13" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y13" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI13" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="W13" s="4"/>
+      <c r="AQ13" s="0" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1254,42 +1448,148 @@
         <v>14</v>
       </c>
       <c r="C14" s="0" t="n">
+        <v>41.7090584</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>-87.877258885395</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ14" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>41.82621495</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D15" s="0" t="n">
         <v>-87.8192555677286</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E15" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="V15" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="Q14" s="0" t="s">
+      <c r="W15" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="T14" s="0" t="s">
+      <c r="X15" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y15" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="U14" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="V14" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="W14" s="0" t="s">
+      <c r="Z15" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ15" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="X14" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y14" s="0" t="s">
+      <c r="D16" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="Z14" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI14" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
+      <c r="F16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC16" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ16" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB17" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC17" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD17" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE17" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF17" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1316,7 +1616,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60"/>
@@ -1324,7 +1624,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -1332,31 +1632,31 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>48</v>
@@ -1364,26 +1664,1018 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>133</v>
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AQ17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M25" activeCellId="0" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="3.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="0" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="6.01"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF2" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ2" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF3" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ3" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF4" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ4" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF5" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ5" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF6" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ6" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB7" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE7" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF7" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG7" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK7" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM7" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ7" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF8" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ8" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE9" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF9" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG9" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH9" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ9" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ10" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>41.87873805</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>-87.6359612118808</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF11" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ11" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z12" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF12" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ12" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z13" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF13" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="AQ13" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z14" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF14" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="AQ14" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF15" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ15" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y16" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z16" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC16" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF16" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="AQ16" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="V17" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="X17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y17" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z17" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB17" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC17" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD17" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE17" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF17" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="AQ17" s="0" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
